--- a/Code/R/Magnan/PerfSearch_RF_SvmRFE2_heu_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_SvmRFE2_heu_comb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="6" r:id="rId1"/>
@@ -1182,11 +1182,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="70390528"/>
-        <c:axId val="70392064"/>
+        <c:axId val="87255680"/>
+        <c:axId val="87265664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70390528"/>
+        <c:axId val="87255680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -1197,12 +1197,12 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70392064"/>
+        <c:crossAx val="87265664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70392064"/>
+        <c:axId val="87265664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000064"/>
@@ -1213,7 +1213,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70390528"/>
+        <c:crossAx val="87255680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1225,7 +1225,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2827,23 +2827,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="72811648"/>
-        <c:axId val="72813184"/>
+        <c:axId val="98155520"/>
+        <c:axId val="98165504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72811648"/>
+        <c:axId val="98155520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72813184"/>
+        <c:crossAx val="98165504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72813184"/>
+        <c:axId val="98165504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,20 +2851,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72811648"/>
+        <c:crossAx val="98155520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4898,23 +4897,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="74867456"/>
-        <c:axId val="74868992"/>
+        <c:axId val="92433024"/>
+        <c:axId val="92455296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74867456"/>
+        <c:axId val="92433024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74868992"/>
+        <c:crossAx val="92455296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74868992"/>
+        <c:axId val="92455296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4922,20 +4921,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74867456"/>
+        <c:crossAx val="92433024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5587,23 +5585,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="74901376"/>
-        <c:axId val="74902912"/>
+        <c:axId val="98217984"/>
+        <c:axId val="98219520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74901376"/>
+        <c:axId val="98217984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74902912"/>
+        <c:crossAx val="98219520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74902912"/>
+        <c:axId val="98219520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5611,7 +5609,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74901376"/>
+        <c:crossAx val="98217984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5623,7 +5621,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6037,11 +6035,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="74918912"/>
-        <c:axId val="76985088"/>
+        <c:axId val="98653312"/>
+        <c:axId val="98654848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74918912"/>
+        <c:axId val="98653312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="650"/>
@@ -6050,15 +6048,15 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76985088"/>
+        <c:crossAx val="98654848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="76985088"/>
+        <c:axId val="98654848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.60000000000000009"/>
+          <c:max val="0.6000000000000002"/>
           <c:min val="0.4"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -6066,7 +6064,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74918912"/>
+        <c:crossAx val="98653312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6079,7 +6077,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7662,23 +7660,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="78062720"/>
-        <c:axId val="77372800"/>
+        <c:axId val="98605696"/>
+        <c:axId val="98619776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78062720"/>
+        <c:axId val="98605696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77372800"/>
+        <c:crossAx val="98619776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77372800"/>
+        <c:axId val="98619776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7686,20 +7684,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78062720"/>
+        <c:crossAx val="98605696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7709,9 +7706,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -8353,23 +8348,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="89066880"/>
-        <c:axId val="89065344"/>
+        <c:axId val="100950016"/>
+        <c:axId val="100951552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="89066880"/>
+        <c:axId val="100950016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89065344"/>
+        <c:crossAx val="100951552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="89065344"/>
+        <c:axId val="100951552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8377,20 +8372,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89066880"/>
+        <c:crossAx val="100950016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8928,7 +8922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -10480,7 +10474,7 @@
         <v>490</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:I8" si="0">AVERAGE(D3:D7)</f>
+        <f t="shared" ref="D8:H8" si="0">AVERAGE(D3:D7)</f>
         <v>0.80281690140845074</v>
       </c>
       <c r="E8" s="2">
@@ -10518,7 +10512,7 @@
         <v>1.9070512686938958E-2</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:I9" si="1">STDEV(E3:E7)</f>
+        <f t="shared" ref="E9:H9" si="1">STDEV(E3:E7)</f>
         <v>1.9070512686938958E-2</v>
       </c>
       <c r="F9" t="s">
@@ -10693,7 +10687,7 @@
         <v>490</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" ref="D16:I16" si="2">AVERAGE(D11:D15)</f>
+        <f t="shared" ref="D16:F16" si="2">AVERAGE(D11:D15)</f>
         <v>0.73</v>
       </c>
       <c r="E16" s="2">
@@ -10705,7 +10699,7 @@
         <v>0.67714285714285705</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" ref="G16:I16" si="3">AVERAGE(G11:G15)</f>
+        <f t="shared" ref="G16:H16" si="3">AVERAGE(G11:G15)</f>
         <v>0.70836871145731894</v>
       </c>
       <c r="H16" s="2">
@@ -10733,7 +10727,7 @@
         <v>1.3739560044051139E-2</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ref="E17:I17" si="5">STDEV(E11:E15)</f>
+        <f t="shared" ref="E17:F17" si="5">STDEV(E11:E15)</f>
         <v>1.1952286093344186E-2</v>
       </c>
       <c r="F17" s="2">
@@ -10741,7 +10735,7 @@
         <v>2.7847983842311092E-2</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" ref="G17:I17" si="6">STDEV(G11:G15)</f>
+        <f t="shared" ref="G17:H17" si="6">STDEV(G11:G15)</f>
         <v>1.7567916903889133E-2</v>
       </c>
       <c r="H17" s="2">
@@ -10910,7 +10904,7 @@
         <v>490</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" ref="D24:I24" si="8">AVERAGE(D19:D23)</f>
+        <f t="shared" ref="D24:E24" si="8">AVERAGE(D19:D23)</f>
         <v>0.6399999999999999</v>
       </c>
       <c r="E24" s="2">
@@ -10950,7 +10944,7 @@
         <v>5.4772255750517647E-2</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ref="E25:I25" si="11">STDEV(E19:E23)</f>
+        <f t="shared" ref="E25" si="11">STDEV(E19:E23)</f>
         <v>0</v>
       </c>
       <c r="F25" s="2">
@@ -11127,7 +11121,7 @@
         <v>490</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" ref="D32:I32" si="14">AVERAGE(D27:D31)</f>
+        <f t="shared" ref="D32:F32" si="14">AVERAGE(D27:D31)</f>
         <v>0.46666666666666662</v>
       </c>
       <c r="E32" s="2">
@@ -11167,7 +11161,7 @@
         <v>7.4535599249993228E-2</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" ref="E33:I33" si="16">STDEV(E27:E31)</f>
+        <f t="shared" ref="E33:F33" si="16">STDEV(E27:E31)</f>
         <v>0</v>
       </c>
       <c r="F33" s="2">
@@ -11344,7 +11338,7 @@
         <v>490</v>
       </c>
       <c r="D40" s="2">
-        <f t="shared" ref="D40:I40" si="18">AVERAGE(D35:D39)</f>
+        <f t="shared" ref="D40:F40" si="18">AVERAGE(D35:D39)</f>
         <v>0.51929824561403515</v>
       </c>
       <c r="E40" s="2">
@@ -11384,7 +11378,7 @@
         <v>6.6516451263610339E-3</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ref="E41:I41" si="20">STDEV(E35:E39)</f>
+        <f t="shared" ref="E41:F41" si="20">STDEV(E35:E39)</f>
         <v>0</v>
       </c>
       <c r="F41" s="2">
@@ -11564,7 +11558,7 @@
         <v>490</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" ref="D48:I48" si="22">AVERAGE(D43:D47)</f>
+        <f t="shared" ref="D48:F48" si="22">AVERAGE(D43:D47)</f>
         <v>0.7</v>
       </c>
       <c r="E48" s="2">
@@ -11604,7 +11598,7 @@
         <v>8.6739163591761058E-3</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" ref="E49:I49" si="24">STDEV(E43:E47)</f>
+        <f t="shared" ref="E49:F49" si="24">STDEV(E43:E47)</f>
         <v>1.1248762609164359E-2</v>
       </c>
       <c r="F49" s="2">
@@ -11636,7 +11630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19604,7 +19598,7 @@
         <v>500</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ref="D8:I8" si="0">AVERAGE(D3:D7)</f>
+        <f t="shared" ref="D8:H8" si="0">AVERAGE(D3:D7)</f>
         <v>0.29765258215962442</v>
       </c>
       <c r="E8" s="2">
@@ -19642,7 +19636,7 @@
         <v>1.6127290175885114E-2</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ref="E9:I9" si="1">STDEV(E3:E7)</f>
+        <f t="shared" ref="E9:H9" si="1">STDEV(E3:E7)</f>
         <v>1.6127290175885114E-2</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -20756,9 +20750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20861,7 +20855,7 @@
         <v>0.42615061646851099</v>
       </c>
       <c r="K3">
-        <f>(J3-J2)/J2*100</f>
+        <f t="shared" ref="K3:K34" si="0">(J3-J2)/J2*100</f>
         <v>21.748094035446879</v>
       </c>
       <c r="L3"/>
@@ -20898,7 +20892,7 @@
         <v>0.45432357340091101</v>
       </c>
       <c r="K4">
-        <f>(J4-J3)/J3*100</f>
+        <f t="shared" si="0"/>
         <v>6.6110327765961987</v>
       </c>
       <c r="L4"/>
@@ -20935,7 +20929,7 @@
         <v>0.46749477586781402</v>
       </c>
       <c r="K5">
-        <f>(J5-J4)/J4*100</f>
+        <f t="shared" si="0"/>
         <v>2.8990796951846214</v>
       </c>
     </row>
@@ -20971,7 +20965,7 @@
         <v>0.46971147041300798</v>
       </c>
       <c r="K6">
-        <f>(J6-J5)/J5*100</f>
+        <f t="shared" si="0"/>
         <v>0.47416455961012571</v>
       </c>
     </row>
@@ -21007,7 +21001,7 @@
         <v>0.461251782206899</v>
       </c>
       <c r="K7">
-        <f>(J7-J6)/J6*100</f>
+        <f t="shared" si="0"/>
         <v>-1.8010393058254568</v>
       </c>
     </row>
@@ -21043,7 +21037,7 @@
         <v>0.477576123685233</v>
       </c>
       <c r="K8">
-        <f>(J8-J7)/J7*100</f>
+        <f t="shared" si="0"/>
         <v>3.5391389492803218</v>
       </c>
       <c r="L8"/>
@@ -21080,7 +21074,7 @@
         <v>0.48299798023695101</v>
       </c>
       <c r="K9">
-        <f>(J9-J8)/J8*100</f>
+        <f t="shared" si="0"/>
         <v>1.1352863518134158</v>
       </c>
     </row>
@@ -21116,7 +21110,7 @@
         <v>0.50085678893767105</v>
       </c>
       <c r="K10">
-        <f>(J10-J9)/J9*100</f>
+        <f t="shared" si="0"/>
         <v>3.6974913832887659</v>
       </c>
     </row>
@@ -21152,7 +21146,7 @@
         <v>0.51140291248985004</v>
       </c>
       <c r="K11">
-        <f>(J11-J10)/J10*100</f>
+        <f t="shared" si="0"/>
         <v>2.1056165724632705</v>
       </c>
     </row>
@@ -21188,7 +21182,7 @@
         <v>0.50164403032942195</v>
       </c>
       <c r="K12">
-        <f>(J12-J11)/J11*100</f>
+        <f t="shared" si="0"/>
         <v>-1.9082570556580025</v>
       </c>
     </row>
@@ -21224,7 +21218,7 @@
         <v>0.49984503233694499</v>
       </c>
       <c r="K13">
-        <f>(J13-J12)/J12*100</f>
+        <f t="shared" si="0"/>
         <v>-0.35862043275897931</v>
       </c>
     </row>
@@ -21260,7 +21254,7 @@
         <v>0.502105455404667</v>
       </c>
       <c r="K14">
-        <f>(J14-J13)/J13*100</f>
+        <f t="shared" si="0"/>
         <v>0.45222477397719885</v>
       </c>
     </row>
@@ -21296,7 +21290,7 @@
         <v>0.50708176873587396</v>
       </c>
       <c r="K15">
-        <f>(J15-J14)/J14*100</f>
+        <f t="shared" si="0"/>
         <v>0.99108927768895672</v>
       </c>
     </row>
@@ -21332,7 +21326,7 @@
         <v>0.51574137349162297</v>
       </c>
       <c r="K16">
-        <f>(J16-J15)/J15*100</f>
+        <f t="shared" si="0"/>
         <v>1.7077334050752619</v>
       </c>
     </row>
@@ -21368,7 +21362,7 @@
         <v>0.51710006855415402</v>
       </c>
       <c r="K17">
-        <f>(J17-J16)/J16*100</f>
+        <f t="shared" si="0"/>
         <v>0.26344503899940186</v>
       </c>
     </row>
@@ -21404,7 +21398,7 @@
         <v>0.51647290036053295</v>
       </c>
       <c r="K18">
-        <f>(J18-J17)/J17*100</f>
+        <f t="shared" si="0"/>
         <v>-0.12128565277020338</v>
       </c>
     </row>
@@ -21440,7 +21434,7 @@
         <v>0.51814589677190703</v>
       </c>
       <c r="K19">
-        <f>(J19-J18)/J18*100</f>
+        <f t="shared" si="0"/>
         <v>0.32392723997836465</v>
       </c>
     </row>
@@ -21476,7 +21470,7 @@
         <v>0.51127375098992001</v>
       </c>
       <c r="K20">
-        <f>(J20-J19)/J19*100</f>
+        <f t="shared" si="0"/>
         <v>-1.3262955134453596</v>
       </c>
     </row>
@@ -21512,7 +21506,7 @@
         <v>0.52055708528787203</v>
       </c>
       <c r="K21">
-        <f>(J21-J20)/J20*100</f>
+        <f t="shared" si="0"/>
         <v>1.8157267569433766</v>
       </c>
     </row>
@@ -21548,7 +21542,7 @@
         <v>0.52529719646678297</v>
       </c>
       <c r="K22">
-        <f>(J22-J21)/J21*100</f>
+        <f t="shared" si="0"/>
         <v>0.91058431685539643</v>
       </c>
     </row>
@@ -21584,7 +21578,7 @@
         <v>0.523041522205134</v>
       </c>
       <c r="K23">
-        <f>(J23-J22)/J22*100</f>
+        <f t="shared" si="0"/>
         <v>-0.42940915672516872</v>
       </c>
     </row>
@@ -21620,7 +21614,7 @@
         <v>0.53038435393681005</v>
       </c>
       <c r="K24">
-        <f>(J24-J23)/J23*100</f>
+        <f t="shared" si="0"/>
         <v>1.4038716660044113</v>
       </c>
     </row>
@@ -21656,7 +21650,7 @@
         <v>0.53254746959972699</v>
       </c>
       <c r="K25">
-        <f>(J25-J24)/J24*100</f>
+        <f t="shared" si="0"/>
         <v>0.40783926729004727</v>
       </c>
     </row>
@@ -21692,7 +21686,7 @@
         <v>0.53517212821862503</v>
       </c>
       <c r="K26">
-        <f>(J26-J25)/J25*100</f>
+        <f t="shared" si="0"/>
         <v>0.49284970236940384</v>
       </c>
     </row>
@@ -21728,7 +21722,7 @@
         <v>0.53690584169646405</v>
       </c>
       <c r="K27">
-        <f>(J27-J26)/J26*100</f>
+        <f t="shared" si="0"/>
         <v>0.3239543665343444</v>
       </c>
     </row>
@@ -21764,7 +21758,7 @@
         <v>0.53383316421897498</v>
       </c>
       <c r="K28">
-        <f>(J28-J27)/J27*100</f>
+        <f t="shared" si="0"/>
         <v>-0.57229354550889555</v>
       </c>
     </row>
@@ -21800,7 +21794,7 @@
         <v>0.54892698595175404</v>
       </c>
       <c r="K29">
-        <f>(J29-J28)/J28*100</f>
+        <f t="shared" si="0"/>
         <v>2.827441744812182</v>
       </c>
     </row>
@@ -21836,7 +21830,7 @@
         <v>0.542684260281729</v>
       </c>
       <c r="K30">
-        <f>(J30-J29)/J29*100</f>
+        <f t="shared" si="0"/>
         <v>-1.1372597503475119</v>
       </c>
     </row>
@@ -21872,7 +21866,7 @@
         <v>0.54885164743541803</v>
       </c>
       <c r="K31">
-        <f>(J31-J30)/J30*100</f>
+        <f t="shared" si="0"/>
         <v>1.1364595594659948</v>
       </c>
     </row>
@@ -21908,7 +21902,7 @@
         <v>0.552285671704143</v>
       </c>
       <c r="K32">
-        <f>(J32-J31)/J31*100</f>
+        <f t="shared" si="0"/>
         <v>0.62567440305060562</v>
       </c>
     </row>
@@ -21944,7 +21938,7 @@
         <v>0.558179826681514</v>
       </c>
       <c r="K33">
-        <f>(J33-J32)/J32*100</f>
+        <f t="shared" si="0"/>
         <v>1.0672293849637431</v>
       </c>
     </row>
@@ -21980,7 +21974,7 @@
         <v>0.55733252140829503</v>
       </c>
       <c r="K34">
-        <f>(J34-J33)/J33*100</f>
+        <f t="shared" si="0"/>
         <v>-0.15179790324139086</v>
       </c>
     </row>
@@ -22016,7 +22010,7 @@
         <v>0.56768767993741198</v>
       </c>
       <c r="K35" s="2">
-        <f>(J35-J34)/J34*100</f>
+        <f t="shared" ref="K35:K66" si="1">(J35-J34)/J34*100</f>
         <v>1.8579856963937844</v>
       </c>
       <c r="L35" s="2" t="s">
@@ -22055,7 +22049,7 @@
         <v>0.56223443041649701</v>
       </c>
       <c r="K36">
-        <f>(J36-J35)/J35*100</f>
+        <f t="shared" si="1"/>
         <v>-0.96060733985211655</v>
       </c>
     </row>
@@ -22091,7 +22085,7 @@
         <v>0.56117508869345001</v>
       </c>
       <c r="K37">
-        <f>(J37-J36)/J36*100</f>
+        <f t="shared" si="1"/>
         <v>-0.18841637326662011</v>
       </c>
     </row>
@@ -22127,7 +22121,7 @@
         <v>0.56880730078017605</v>
       </c>
       <c r="K38" s="2">
-        <f>(J38-J37)/J37*100</f>
+        <f t="shared" si="1"/>
         <v>1.3600411423279068</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -22166,7 +22160,7 @@
         <v>0.55840481185241997</v>
       </c>
       <c r="K39">
-        <f>(J39-J38)/J38*100</f>
+        <f t="shared" si="1"/>
         <v>-1.828824790660744</v>
       </c>
     </row>
@@ -22202,7 +22196,7 @@
         <v>0.55717403309984004</v>
       </c>
       <c r="K40">
-        <f>(J40-J39)/J39*100</f>
+        <f t="shared" si="1"/>
         <v>-0.22040976840744195</v>
       </c>
     </row>
@@ -22238,7 +22232,7 @@
         <v>0.56023093863415996</v>
       </c>
       <c r="K41">
-        <f>(J41-J40)/J40*100</f>
+        <f t="shared" si="1"/>
         <v>0.54864465188961042</v>
       </c>
     </row>
@@ -22274,7 +22268,7 @@
         <v>0.55874777794244102</v>
       </c>
       <c r="K42">
-        <f>(J42-J41)/J41*100</f>
+        <f t="shared" si="1"/>
         <v>-0.26474094689145178</v>
       </c>
     </row>
@@ -22310,7 +22304,7 @@
         <v>0.55613478589982701</v>
       </c>
       <c r="K43">
-        <f>(J43-J42)/J42*100</f>
+        <f t="shared" si="1"/>
         <v>-0.46765144234420197</v>
       </c>
     </row>
@@ -22346,7 +22340,7 @@
         <v>0.56245413390657495</v>
       </c>
       <c r="K44">
-        <f>(J44-J43)/J43*100</f>
+        <f t="shared" si="1"/>
         <v>1.1362979203905079</v>
       </c>
     </row>
@@ -22382,7 +22376,7 @@
         <v>0.56227617148338205</v>
       </c>
       <c r="K45" s="2">
-        <f>(J45-J44)/J44*100</f>
+        <f t="shared" si="1"/>
         <v>-3.1640344068030471E-2</v>
       </c>
       <c r="L45" s="2" t="s">
@@ -22421,7 +22415,7 @@
         <v>0.56248223067188996</v>
       </c>
       <c r="K46">
-        <f>(J46-J45)/J45*100</f>
+        <f t="shared" si="1"/>
         <v>3.6647327231437231E-2</v>
       </c>
     </row>
@@ -22457,7 +22451,7 @@
         <v>0.55501141245545704</v>
       </c>
       <c r="K47">
-        <f>(J47-J46)/J46*100</f>
+        <f t="shared" si="1"/>
         <v>-1.3281874180290032</v>
       </c>
     </row>
@@ -22493,7 +22487,7 @@
         <v>0.55602580004595903</v>
       </c>
       <c r="K48">
-        <f>(J48-J47)/J47*100</f>
+        <f t="shared" si="1"/>
         <v>0.18276878055789469</v>
       </c>
     </row>
@@ -22529,43 +22523,43 @@
         <v>0.55641359761048903</v>
       </c>
       <c r="K49">
-        <f>(J49-J48)/J48*100</f>
+        <f t="shared" si="1"/>
         <v>6.9744527052152519E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50">
+    <row r="50" spans="1:12" s="2" customFormat="1">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>490</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>0.86369056230709995</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>0.84867078281037001</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>0.78038194444444398</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>0.78993055555555602</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>0.77083333333333304</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="2">
         <v>0.77534433806796799</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="2">
         <v>0.78250511027957104</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="2">
         <v>0.56095699457081105</v>
       </c>
-      <c r="K50">
-        <f>(J50-J49)/J49*100</f>
+      <c r="K50" s="2">
+        <f t="shared" si="1"/>
         <v>0.8165503107461034</v>
       </c>
     </row>
@@ -22601,7 +22595,7 @@
         <v>0.55572571751051103</v>
       </c>
       <c r="K51">
-        <f>(J51-J50)/J50*100</f>
+        <f t="shared" si="1"/>
         <v>-0.93256294349310653</v>
       </c>
     </row>
@@ -22637,7 +22631,7 @@
         <v>0.55477953914507105</v>
       </c>
       <c r="K52">
-        <f>(J52-J51)/J51*100</f>
+        <f t="shared" si="1"/>
         <v>-0.17025995659847787</v>
       </c>
     </row>
@@ -22673,7 +22667,7 @@
         <v>0.55565789330228799</v>
       </c>
       <c r="K53">
-        <f>(J53-J52)/J52*100</f>
+        <f t="shared" si="1"/>
         <v>0.15832490119777978</v>
       </c>
     </row>
@@ -22709,7 +22703,7 @@
         <v>0.56589382818078804</v>
       </c>
       <c r="K54" s="2">
-        <f>(J54-J53)/J53*100</f>
+        <f t="shared" si="1"/>
         <v>1.8421289433445551</v>
       </c>
       <c r="L54" s="2" t="s">
@@ -22748,7 +22742,7 @@
         <v>0.56375146062653403</v>
       </c>
       <c r="K55">
-        <f>(J55-J54)/J54*100</f>
+        <f t="shared" si="1"/>
         <v>-0.3785811838841226</v>
       </c>
     </row>
@@ -22784,7 +22778,7 @@
         <v>0.56109546122235698</v>
       </c>
       <c r="K56">
-        <f>(J56-J55)/J55*100</f>
+        <f t="shared" si="1"/>
         <v>-0.47112949405492605</v>
       </c>
     </row>
@@ -22820,7 +22814,7 @@
         <v>0.55684897046723303</v>
       </c>
       <c r="K57">
-        <f>(J57-J56)/J56*100</f>
+        <f t="shared" si="1"/>
         <v>-0.75682144102055204</v>
       </c>
     </row>
@@ -22856,7 +22850,7 @@
         <v>0.55537935445221998</v>
       </c>
       <c r="K58">
-        <f>(J58-J57)/J57*100</f>
+        <f t="shared" si="1"/>
         <v>-0.2639164464612278</v>
       </c>
     </row>
@@ -22892,7 +22886,7 @@
         <v>0.55120812656479401</v>
       </c>
       <c r="K59">
-        <f>(J59-J58)/J58*100</f>
+        <f t="shared" si="1"/>
         <v>-0.75105922717277063</v>
       </c>
     </row>
@@ -22928,7 +22922,7 @@
         <v>0.553659120708758</v>
       </c>
       <c r="K60">
-        <f>(J60-J59)/J59*100</f>
+        <f t="shared" si="1"/>
         <v>0.44465856467663667</v>
       </c>
     </row>
@@ -22964,7 +22958,7 @@
         <v>0.55392348054826401</v>
       </c>
       <c r="K61">
-        <f>(J61-J60)/J60*100</f>
+        <f t="shared" si="1"/>
         <v>4.7747762046725782E-2</v>
       </c>
     </row>
@@ -22973,7 +22967,8 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Code/R/Magnan/PerfSearch_RF_SvmRFE2_heu_comb.xlsx
+++ b/Code/R/Magnan/PerfSearch_RF_SvmRFE2_heu_comb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="6" r:id="rId1"/>
@@ -1182,11 +1182,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="87255680"/>
-        <c:axId val="87265664"/>
+        <c:axId val="48002944"/>
+        <c:axId val="48078848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87255680"/>
+        <c:axId val="48002944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="600"/>
@@ -1197,12 +1197,12 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87265664"/>
+        <c:crossAx val="48078848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87265664"/>
+        <c:axId val="48078848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.60000000000000064"/>
@@ -1213,7 +1213,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87255680"/>
+        <c:crossAx val="48002944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1225,7 +1225,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1263,184 +1263,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>520</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>550</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="55">
                   <c:v>560</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>590</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="59">
                   <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1452,43 +1452,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>6.2</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.8</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>4.8</c:v>
@@ -1497,64 +1497,64 @@
                   <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.8</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.8</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>4.0999999999999996</c:v>
@@ -1563,73 +1563,73 @@
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.0999999999999996</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>3.5</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.1</c:v>
-                </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.4</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.7</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1660,184 +1660,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>520</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>550</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="55">
                   <c:v>560</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>590</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="59">
                   <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,28 +1849,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.7</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.3</c:v>
@@ -1879,64 +1879,64 @@
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>3.8</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>3.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>4.7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="28">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.4000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3.6</c:v>
@@ -1945,88 +1945,88 @@
                   <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>3.8</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.0999999999999996</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.7</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.8</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.7</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3.6</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3.8</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3.6</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.6</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.7</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>4.9000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.5</c:v>
-                </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.3</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.3</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.5</c:v>
+                  <c:v>4.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3.3</c:v>
+                  <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>4.0999999999999996</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.7</c:v>
-                </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.9</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2057,184 +2057,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>520</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>550</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="55">
                   <c:v>560</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>590</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="59">
                   <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2246,133 +2246,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>3.3</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9</c:v>
+                  <c:v>2.2000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2.7</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>3.3</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.7</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="36">
                   <c:v>2.9</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="37">
                   <c:v>2.6</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="38">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>2.5</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="40">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>2.9</c:v>
@@ -2381,49 +2381,49 @@
                   <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>3.2</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>3.4</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.2999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.7</c:v>
-                </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.6</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>3.3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.7</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.8</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.8</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2454,184 +2454,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>500</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>420</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>470</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>430</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>480</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="50">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>520</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>550</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="55">
                   <c:v>560</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="56">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>590</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>450</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>460</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>490</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>510</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>530</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>540</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>570</c:v>
-                </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="59">
                   <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>580</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,178 +2646,178 @@
                   <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.6</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.6</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>1.7</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1.9</c:v>
                 </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="30">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="33">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="42">
                   <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.9</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.6</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.8</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="49">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>1.8</c:v>
                 </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>1.9</c:v>
@@ -2827,23 +2827,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="98155520"/>
-        <c:axId val="98165504"/>
+        <c:axId val="49449600"/>
+        <c:axId val="49624192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98155520"/>
+        <c:axId val="49449600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98165504"/>
+        <c:crossAx val="49624192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98165504"/>
+        <c:axId val="49624192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,19 +2851,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98155520"/>
+        <c:crossAx val="49449600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4897,23 +4898,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="92433024"/>
-        <c:axId val="92455296"/>
+        <c:axId val="81266560"/>
+        <c:axId val="81268096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92433024"/>
+        <c:axId val="81266560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92455296"/>
+        <c:crossAx val="81268096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92455296"/>
+        <c:axId val="81268096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4921,19 +4922,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92433024"/>
+        <c:crossAx val="81266560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4943,7 +4945,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -5585,23 +5589,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="98217984"/>
-        <c:axId val="98219520"/>
+        <c:axId val="88985984"/>
+        <c:axId val="89180032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98217984"/>
+        <c:axId val="88985984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98219520"/>
+        <c:crossAx val="89180032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98219520"/>
+        <c:axId val="89180032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5609,19 +5613,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98217984"/>
+        <c:crossAx val="88985984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6035,11 +6040,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="98653312"/>
-        <c:axId val="98654848"/>
+        <c:axId val="49124864"/>
+        <c:axId val="49126400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98653312"/>
+        <c:axId val="49124864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="650"/>
@@ -6048,15 +6053,15 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98654848"/>
+        <c:crossAx val="49126400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98654848"/>
+        <c:axId val="49126400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.6000000000000002"/>
+          <c:max val="0.60000000000000031"/>
           <c:min val="0.4"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -6064,7 +6069,7 @@
         <c:minorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98653312"/>
+        <c:crossAx val="49124864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6077,7 +6082,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7660,23 +7665,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="98605696"/>
-        <c:axId val="98619776"/>
+        <c:axId val="49331200"/>
+        <c:axId val="49332992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98605696"/>
+        <c:axId val="49331200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98619776"/>
+        <c:crossAx val="49332992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98619776"/>
+        <c:axId val="49332992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7684,7 +7689,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98605696"/>
+        <c:crossAx val="49331200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7696,7 +7701,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7706,7 +7711,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -8348,23 +8355,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="100950016"/>
-        <c:axId val="100951552"/>
+        <c:axId val="49439104"/>
+        <c:axId val="49440640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100950016"/>
+        <c:axId val="49439104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100951552"/>
+        <c:crossAx val="49440640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100951552"/>
+        <c:axId val="49440640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8372,19 +8379,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100950016"/>
+        <c:crossAx val="49439104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8923,7 +8931,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9154,7 +9162,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10278,8 +10286,8 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13854,13 +13862,13 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:M2"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1">
+    <row r="1" spans="1:13" s="2" customFormat="1">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -13898,59 +13906,56 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2">
-        <v>50</v>
-      </c>
-      <c r="B2" s="2">
-        <v>500</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.67435695279393104</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.85503333333333298</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.95078605604921396</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.3698630136986301E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0.114122764587079</v>
-      </c>
-      <c r="J2" s="2">
-        <v>6.2</v>
-      </c>
-      <c r="K2" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L2" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="M2" s="2">
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0.63968167931408704</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>0.7</v>
+      </c>
+      <c r="K2">
         <v>1.9</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="L2">
+        <v>1.8</v>
+      </c>
+      <c r="M2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>0.67675174928550597</v>
+        <v>0.61886271804474402</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -13971,27 +13976,27 @@
         <v>17</v>
       </c>
       <c r="J3">
-        <v>5.5</v>
+        <v>1.4</v>
       </c>
       <c r="K3">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="M3">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>0.64818172858973</v>
+        <v>0.62585493249236201</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -14012,112 +14017,112 @@
         <v>17</v>
       </c>
       <c r="J4">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="K4">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="L4">
-        <v>2.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M4">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>420</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>0.67510594264314605</v>
-      </c>
-      <c r="D5">
-        <v>0.820566666666667</v>
+        <v>0.63586774416083902</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F5">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="K5">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>440</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>0.67204592490391502</v>
-      </c>
-      <c r="D6">
-        <v>0.84696666666666698</v>
+        <v>0.63851877402187995</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F6">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
       </c>
       <c r="J6">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="K6">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="L6">
-        <v>2.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="M6">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>470</v>
+        <v>60</v>
       </c>
       <c r="C7">
-        <v>0.68280772642160303</v>
+        <v>0.63517788508918904</v>
       </c>
       <c r="D7">
-        <v>0.85350000000000004</v>
+        <v>0.89123333333333299</v>
       </c>
       <c r="E7">
         <v>0.95078605604921396</v>
@@ -14135,71 +14140,71 @@
         <v>0.114122764587079</v>
       </c>
       <c r="J7">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="K7">
-        <v>4.4000000000000004</v>
+        <v>2.5</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M7">
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:13">
       <c r="A8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>0.63851877402187995</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
+        <v>0.62548536513255404</v>
+      </c>
+      <c r="D8">
+        <v>0.90510000000000002</v>
       </c>
       <c r="E8">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0.114122764587079</v>
       </c>
       <c r="J8">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K8">
-        <v>2.7</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L8">
-        <v>2.2000000000000002</v>
+        <v>1.9</v>
       </c>
       <c r="M8">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C9">
-        <v>0.62731841923721499</v>
+        <v>0.63855819454025897</v>
       </c>
       <c r="D9">
-        <v>0.88723333333333299</v>
+        <v>0.884033333333334</v>
       </c>
       <c r="E9">
         <v>0.95078605604921396</v>
@@ -14217,45 +14222,45 @@
         <v>0.114122764587079</v>
       </c>
       <c r="J9">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K9">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L9">
         <v>2.2999999999999998</v>
       </c>
       <c r="M9">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C10">
-        <v>0.64698925790874295</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
+        <v>0.62731841923721499</v>
+      </c>
+      <c r="D10">
+        <v>0.88723333333333299</v>
       </c>
       <c r="E10">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.114122764587079</v>
       </c>
       <c r="J10">
         <v>4.8</v>
@@ -14264,21 +14269,21 @@
         <v>3.3</v>
       </c>
       <c r="L10">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="C11">
-        <v>0.649724056371345</v>
+        <v>0.63706021484182895</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -14299,27 +14304,27 @@
         <v>17</v>
       </c>
       <c r="J11">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="K11">
         <v>3.3</v>
       </c>
       <c r="L11">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="M11">
         <v>1.6</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:13">
       <c r="A12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="C12">
-        <v>0.65378929732926006</v>
+        <v>0.63662658913964998</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -14340,109 +14345,109 @@
         <v>17</v>
       </c>
       <c r="J12">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K12">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M12">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="C13">
-        <v>0.666408790775601</v>
-      </c>
-      <c r="D13">
-        <v>0.80400000000000005</v>
+        <v>0.64698925790874295</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F13">
-        <v>2.7397260273972601E-2</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.99928057553956795</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="I13">
-        <v>0.12840512865763401</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
       </c>
       <c r="J13">
         <v>4.8</v>
       </c>
       <c r="K13">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M13">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>290</v>
+        <v>130</v>
       </c>
       <c r="C14">
-        <v>0.65251798561151098</v>
-      </c>
-      <c r="D14">
-        <v>0.82676666666666698</v>
+        <v>0.64983246279689</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
       </c>
       <c r="E14">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F14">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
       </c>
       <c r="J14">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="K14">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M14">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="C15">
-        <v>0.66422095200552</v>
+        <v>0.649724056371345</v>
       </c>
       <c r="D15" t="s">
         <v>24</v>
@@ -14466,273 +14471,273 @@
         <v>4.8</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L15">
         <v>2.9</v>
       </c>
       <c r="M15">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>380</v>
+        <v>150</v>
       </c>
       <c r="C16">
-        <v>0.65019217502710303</v>
-      </c>
-      <c r="D16">
-        <v>0.81769999999999998</v>
+        <v>0.65378929732926006</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F16">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
       </c>
       <c r="J16">
         <v>4.8</v>
       </c>
       <c r="K16">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L16">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="M16">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>410</v>
+        <v>160</v>
       </c>
       <c r="C17">
-        <v>0.672371144180547</v>
-      </c>
-      <c r="D17">
-        <v>0.83089999999999997</v>
+        <v>0.65760323248250796</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F17">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
       </c>
       <c r="J17">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="K17">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="L17">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="M17">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>430</v>
+        <v>170</v>
       </c>
       <c r="C18">
-        <v>0.65488814427909803</v>
-      </c>
-      <c r="D18">
-        <v>0.843733333333333</v>
+        <v>0.65475017246476896</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F18">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
       </c>
       <c r="J18">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="K18">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="L18">
-        <v>2.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="M18">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>480</v>
+        <v>180</v>
       </c>
       <c r="C19">
-        <v>0.67119345619394899</v>
-      </c>
-      <c r="D19">
-        <v>0.82693333333333296</v>
+        <v>0.65554351039716396</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F19">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
       </c>
       <c r="J19">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="K19">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>520</v>
+        <v>190</v>
       </c>
       <c r="C20">
-        <v>0.68614368778949497</v>
-      </c>
-      <c r="D20">
-        <v>0.85363333333333302</v>
+        <v>0.66263920370552898</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F20">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
       </c>
       <c r="J20">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="K20">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>550</v>
+        <v>200</v>
       </c>
       <c r="C21">
-        <v>0.66992214447620102</v>
-      </c>
-      <c r="D21">
-        <v>0.83556666666666701</v>
+        <v>0.65864787621957399</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F21">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
       </c>
       <c r="J21">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="K21">
-        <v>4.4000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>560</v>
+        <v>210</v>
       </c>
       <c r="C22">
-        <v>0.67530304523504603</v>
+        <v>0.66963141815314897</v>
       </c>
       <c r="D22">
-        <v>0.85523333333333296</v>
+        <v>0.8498</v>
       </c>
       <c r="E22">
         <v>0.95078605604921396</v>
@@ -14750,54 +14755,54 @@
         <v>0.114122764587079</v>
       </c>
       <c r="J22">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="K22">
-        <v>4.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L22">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>590</v>
+        <v>220</v>
       </c>
       <c r="C23">
-        <v>0.68345323741007202</v>
-      </c>
-      <c r="D23">
-        <v>0.85893333333333299</v>
+        <v>0.67484478170887996</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
       </c>
       <c r="E23">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F23">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
       </c>
       <c r="J23">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="K23">
-        <v>4.0999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M23">
         <v>1.9</v>
@@ -14805,95 +14810,95 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="C24">
-        <v>0.62548536513255404</v>
-      </c>
-      <c r="D24">
-        <v>0.90510000000000002</v>
+        <v>0.66420616931112697</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F24">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
       </c>
       <c r="J24">
-        <v>4.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="K24">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="L24">
+        <v>2.7</v>
+      </c>
+      <c r="M24">
         <v>1.9</v>
-      </c>
-      <c r="M24">
-        <v>1.8</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="C25">
-        <v>0.63855819454025897</v>
-      </c>
-      <c r="D25">
-        <v>0.884033333333334</v>
+        <v>0.67675174928550597</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F25">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
       </c>
       <c r="J25">
-        <v>4.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="K25">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="M25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>110</v>
+        <v>250</v>
       </c>
       <c r="C26">
-        <v>0.63662658913964998</v>
+        <v>0.68065438060510697</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -14917,65 +14922,65 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L26">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C27">
-        <v>0.68065438060510697</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
+        <v>0.666408790775601</v>
+      </c>
+      <c r="D27">
+        <v>0.80400000000000005</v>
       </c>
       <c r="E27">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.99928057553956795</v>
       </c>
       <c r="H27">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I27" t="s">
-        <v>17</v>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="I27">
+        <v>0.12840512865763401</v>
       </c>
       <c r="J27">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="K27">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
         <v>3.2</v>
       </c>
       <c r="M27">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="C28">
-        <v>0.66379718143293798</v>
+        <v>0.67172563319207801</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -14996,27 +15001,27 @@
         <v>17</v>
       </c>
       <c r="J28">
+        <v>2.8</v>
+      </c>
+      <c r="K28">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
       <c r="L28">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="C29">
-        <v>0.66589632403666199</v>
+        <v>0.64818172858973</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -15037,218 +15042,218 @@
         <v>17</v>
       </c>
       <c r="J29">
-        <v>4.0999999999999996</v>
+        <v>5.5</v>
       </c>
       <c r="K29">
-        <v>3.8</v>
+        <v>4.7</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M29">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>370</v>
+        <v>290</v>
       </c>
       <c r="C30">
-        <v>0.66054498866660205</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
+        <v>0.65251798561151098</v>
+      </c>
+      <c r="D30">
+        <v>0.82676666666666698</v>
       </c>
       <c r="E30">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0.114122764587079</v>
       </c>
       <c r="J30">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="K30">
-        <v>3.3</v>
+        <v>4.7</v>
       </c>
       <c r="L30">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M30">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>390</v>
+        <v>300</v>
       </c>
       <c r="C31">
-        <v>0.66268355178870797</v>
+        <v>0.65636148615354395</v>
       </c>
       <c r="D31">
-        <v>0.80120000000000002</v>
+        <v>0.85776666666666701</v>
       </c>
       <c r="E31">
         <v>0.95078605604921396</v>
       </c>
       <c r="F31">
-        <v>2.7397260273972601E-2</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G31">
-        <v>0.99928057553956795</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0.66666666666666696</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0.12840512865763401</v>
+        <v>0.114122764587079</v>
       </c>
       <c r="J31">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="K31">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="L31">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="M31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B32">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="C32">
-        <v>0.65734699911303895</v>
-      </c>
-      <c r="D32">
-        <v>0.83416666666666694</v>
+        <v>0.66422095200552</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
       </c>
       <c r="E32">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F32">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
       </c>
       <c r="J32">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="K32">
         <v>3.6</v>
       </c>
       <c r="L32">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="M32">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>450</v>
+        <v>320</v>
       </c>
       <c r="C33">
-        <v>0.66645313885877799</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
+        <v>0.66752734798462698</v>
+      </c>
+      <c r="D33">
+        <v>0.84746666666666703</v>
       </c>
       <c r="E33">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0.114122764587079</v>
       </c>
       <c r="J33">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="K33">
         <v>3.6</v>
       </c>
       <c r="L33">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M33">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B34">
-        <v>460</v>
+        <v>330</v>
       </c>
       <c r="C34">
-        <v>0.67072533753818997</v>
-      </c>
-      <c r="D34">
-        <v>0.84019999999999995</v>
+        <v>0.66379718143293798</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
       </c>
       <c r="E34">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F34">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
       </c>
       <c r="J34">
         <v>4.0999999999999996</v>
       </c>
       <c r="K34">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M34">
         <v>1.9</v>
@@ -15256,16 +15261,16 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B35">
-        <v>490</v>
+        <v>340</v>
       </c>
       <c r="C35">
-        <v>0.67045924903912701</v>
+        <v>0.66026904503794304</v>
       </c>
       <c r="D35">
-        <v>0.84773333333333301</v>
+        <v>0.82896666666666696</v>
       </c>
       <c r="E35">
         <v>0.95078605604921396</v>
@@ -15283,153 +15288,153 @@
         <v>0.114122764587079</v>
       </c>
       <c r="J35">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="K35">
         <v>4.4000000000000004</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="M35">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B36">
-        <v>510</v>
+        <v>350</v>
       </c>
       <c r="C36">
-        <v>0.66803488715876902</v>
-      </c>
-      <c r="D36">
-        <v>0.87423333333333297</v>
+        <v>0.651118557209029</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
       </c>
       <c r="E36">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F36">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
       </c>
       <c r="J36">
-        <v>4.0999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="K36">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M36">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B37">
-        <v>530</v>
+        <v>360</v>
       </c>
       <c r="C37">
-        <v>0.68148713905588099</v>
-      </c>
-      <c r="D37">
-        <v>0.88273333333333304</v>
+        <v>0.66589632403666199</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
       </c>
       <c r="E37">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F37">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
       </c>
       <c r="J37">
         <v>4.0999999999999996</v>
       </c>
       <c r="K37">
-        <v>4.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="L37">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="B38">
-        <v>540</v>
+        <v>370</v>
       </c>
       <c r="C38">
-        <v>0.67385434118458798</v>
-      </c>
-      <c r="D38">
-        <v>0.86953333333333305</v>
+        <v>0.66054498866660205</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
       </c>
       <c r="E38">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F38">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
       </c>
       <c r="J38">
         <v>4.0999999999999996</v>
       </c>
       <c r="K38">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>570</v>
+        <v>380</v>
       </c>
       <c r="C39">
-        <v>0.67727899871883401</v>
+        <v>0.65019217502710303</v>
       </c>
       <c r="D39">
-        <v>0.84723333333333395</v>
+        <v>0.81769999999999998</v>
       </c>
       <c r="E39">
         <v>0.95078605604921396</v>
@@ -15447,256 +15452,256 @@
         <v>0.114122764587079</v>
       </c>
       <c r="J39">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="K39">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="M39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="B40">
-        <v>600</v>
+        <v>390</v>
       </c>
       <c r="C40">
-        <v>0.67303636542820799</v>
+        <v>0.66268355178870797</v>
       </c>
       <c r="D40">
-        <v>0.88096666666666701</v>
+        <v>0.80120000000000002</v>
       </c>
       <c r="E40">
         <v>0.95078605604921396</v>
       </c>
       <c r="F40">
-        <v>1.3698630136986301E-2</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0.99928057553956795</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="I40">
-        <v>0.114122764587079</v>
+        <v>0.12840512865763401</v>
       </c>
       <c r="J40">
         <v>4.0999999999999996</v>
       </c>
       <c r="K40">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="M40">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="C41">
-        <v>0.63586774416083902</v>
-      </c>
-      <c r="D41" t="s">
-        <v>24</v>
+        <v>0.65734699911303895</v>
+      </c>
+      <c r="D41">
+        <v>0.83416666666666694</v>
       </c>
       <c r="E41">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0.114122764587079</v>
       </c>
       <c r="J41">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K41">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="L41">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="M41">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B42">
-        <v>170</v>
+        <v>410</v>
       </c>
       <c r="C42">
-        <v>0.65475017246476896</v>
-      </c>
-      <c r="D42" t="s">
-        <v>24</v>
+        <v>0.672371144180547</v>
+      </c>
+      <c r="D42">
+        <v>0.83089999999999997</v>
       </c>
       <c r="E42">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I42" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0.114122764587079</v>
       </c>
       <c r="J42">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="K42">
         <v>3.3</v>
       </c>
       <c r="L42">
-        <v>2.2999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="M42">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B43">
-        <v>190</v>
+        <v>420</v>
       </c>
       <c r="C43">
-        <v>0.66263920370552898</v>
-      </c>
-      <c r="D43" t="s">
-        <v>24</v>
+        <v>0.67510594264314605</v>
+      </c>
+      <c r="D43">
+        <v>0.820566666666667</v>
       </c>
       <c r="E43">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I43" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0.114122764587079</v>
       </c>
       <c r="J43">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="K43">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>200</v>
+        <v>430</v>
       </c>
       <c r="C44">
-        <v>0.65864787621957399</v>
-      </c>
-      <c r="D44" t="s">
-        <v>24</v>
+        <v>0.65488814427909803</v>
+      </c>
+      <c r="D44">
+        <v>0.843733333333333</v>
       </c>
       <c r="E44">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0.114122764587079</v>
       </c>
       <c r="J44">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="K44">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M44">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B45">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="C45">
-        <v>0.67484478170887996</v>
-      </c>
-      <c r="D45" t="s">
-        <v>24</v>
+        <v>0.67204592490391502</v>
+      </c>
+      <c r="D45">
+        <v>0.84696666666666698</v>
       </c>
       <c r="E45">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I45" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>0.114122764587079</v>
       </c>
       <c r="J45">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="K45">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L45">
         <v>2.9</v>
@@ -15707,34 +15712,34 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B46">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="C46">
-        <v>0.65636148615354395</v>
-      </c>
-      <c r="D46">
-        <v>0.85776666666666701</v>
+        <v>0.66645313885877799</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
       </c>
       <c r="E46">
-        <v>0.95078605604921396</v>
+        <v>4.9897470950102503E-2</v>
       </c>
       <c r="F46">
-        <v>1.3698630136986301E-2</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
-      </c>
-      <c r="I46">
-        <v>0.114122764587079</v>
+        <v>4.9897470950102503E-2</v>
+      </c>
+      <c r="I46" t="s">
+        <v>17</v>
       </c>
       <c r="J46">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K46">
         <v>3.6</v>
@@ -15743,21 +15748,21 @@
         <v>2.9</v>
       </c>
       <c r="M46">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B47">
-        <v>320</v>
+        <v>460</v>
       </c>
       <c r="C47">
-        <v>0.66752734798462698</v>
+        <v>0.67072533753818997</v>
       </c>
       <c r="D47">
-        <v>0.84746666666666703</v>
+        <v>0.84019999999999995</v>
       </c>
       <c r="E47">
         <v>0.95078605604921396</v>
@@ -15775,13 +15780,13 @@
         <v>0.114122764587079</v>
       </c>
       <c r="J47">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K47">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="L47">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M47">
         <v>1.9</v>
@@ -15789,16 +15794,16 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B48">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="C48">
-        <v>0.66026904503794304</v>
+        <v>0.68280772642160303</v>
       </c>
       <c r="D48">
-        <v>0.82896666666666696</v>
+        <v>0.85350000000000004</v>
       </c>
       <c r="E48">
         <v>0.95078605604921396</v>
@@ -15816,71 +15821,71 @@
         <v>0.114122764587079</v>
       </c>
       <c r="J48">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="K48">
         <v>4.4000000000000004</v>
       </c>
       <c r="L48">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="M48">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B49">
-        <v>350</v>
+        <v>480</v>
       </c>
       <c r="C49">
-        <v>0.651118557209029</v>
-      </c>
-      <c r="D49" t="s">
-        <v>24</v>
+        <v>0.67119345619394899</v>
+      </c>
+      <c r="D49">
+        <v>0.82693333333333296</v>
       </c>
       <c r="E49">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I49" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0.114122764587079</v>
       </c>
       <c r="J49">
-        <v>3.5</v>
+        <v>4.8</v>
       </c>
       <c r="K49">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="L49">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="M49">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B50">
-        <v>580</v>
+        <v>490</v>
       </c>
       <c r="C50">
-        <v>0.67494333300483</v>
+        <v>0.67045924903912701</v>
       </c>
       <c r="D50">
-        <v>0.84870000000000001</v>
+        <v>0.84773333333333301</v>
       </c>
       <c r="E50">
         <v>0.95078605604921396</v>
@@ -15898,236 +15903,238 @@
         <v>0.114122764587079</v>
       </c>
       <c r="J50">
-        <v>3.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K50">
-        <v>4.9000000000000004</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
         <v>1.8</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="2" customFormat="1">
-      <c r="A51">
-        <v>6</v>
-      </c>
-      <c r="B51">
-        <v>60</v>
-      </c>
-      <c r="C51">
-        <v>0.63517788508918904</v>
-      </c>
-      <c r="D51">
-        <v>0.89123333333333299</v>
-      </c>
-      <c r="E51">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>500</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.67435695279393104</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.85503333333333298</v>
+      </c>
+      <c r="E51" s="2">
         <v>0.95078605604921396</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>1.3698630136986301E-2</v>
       </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2">
+        <v>1</v>
+      </c>
+      <c r="I51" s="2">
         <v>0.114122764587079</v>
       </c>
-      <c r="J51">
-        <v>2.8</v>
-      </c>
-      <c r="K51">
-        <v>2.5</v>
-      </c>
-      <c r="L51">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="M51">
-        <v>1.8</v>
-      </c>
-      <c r="N51"/>
+      <c r="J51" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="K51" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L51" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B52">
-        <v>100</v>
+        <v>510</v>
       </c>
       <c r="C52">
-        <v>0.63706021484182895</v>
-      </c>
-      <c r="D52" t="s">
-        <v>24</v>
+        <v>0.66803488715876902</v>
+      </c>
+      <c r="D52">
+        <v>0.87423333333333297</v>
       </c>
       <c r="E52">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I52" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0.114122764587079</v>
       </c>
       <c r="J52">
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K52">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L52">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="M52">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B53">
-        <v>130</v>
+        <v>520</v>
       </c>
       <c r="C53">
-        <v>0.64983246279689</v>
-      </c>
-      <c r="D53" t="s">
-        <v>24</v>
+        <v>0.68614368778949497</v>
+      </c>
+      <c r="D53">
+        <v>0.85363333333333302</v>
       </c>
       <c r="E53">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I53" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0.114122764587079</v>
       </c>
       <c r="J53">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="K53">
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L53">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B54">
-        <v>160</v>
+        <v>530</v>
       </c>
       <c r="C54">
-        <v>0.65760323248250796</v>
-      </c>
-      <c r="D54" t="s">
-        <v>24</v>
+        <v>0.68148713905588099</v>
+      </c>
+      <c r="D54">
+        <v>0.88273333333333304</v>
       </c>
       <c r="E54">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I54" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0.114122764587079</v>
       </c>
       <c r="J54">
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K54">
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L54">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>1.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B55">
-        <v>180</v>
+        <v>540</v>
       </c>
       <c r="C55">
-        <v>0.65554351039716396</v>
-      </c>
-      <c r="D55" t="s">
-        <v>24</v>
+        <v>0.67385434118458798</v>
+      </c>
+      <c r="D55">
+        <v>0.86953333333333305</v>
       </c>
       <c r="E55">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I55" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0.114122764587079</v>
       </c>
       <c r="J55">
-        <v>2.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K55">
-        <v>3.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B56">
-        <v>210</v>
+        <v>550</v>
       </c>
       <c r="C56">
-        <v>0.66963141815314897</v>
+        <v>0.66992214447620102</v>
       </c>
       <c r="D56">
-        <v>0.8498</v>
+        <v>0.83556666666666701</v>
       </c>
       <c r="E56">
         <v>0.95078605604921396</v>
@@ -16145,218 +16152,218 @@
         <v>0.114122764587079</v>
       </c>
       <c r="J56">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="K56">
         <v>4.4000000000000004</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>1.8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B57">
-        <v>270</v>
+        <v>560</v>
       </c>
       <c r="C57">
-        <v>0.67172563319207801</v>
-      </c>
-      <c r="D57" t="s">
-        <v>24</v>
+        <v>0.67530304523504603</v>
+      </c>
+      <c r="D57">
+        <v>0.85523333333333296</v>
       </c>
       <c r="E57">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I57" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0.114122764587079</v>
       </c>
       <c r="J57">
-        <v>2.8</v>
+        <v>4.8</v>
       </c>
       <c r="K57">
-        <v>4.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="L57">
         <v>2.9</v>
       </c>
       <c r="M57">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B58">
-        <v>30</v>
+        <v>570</v>
       </c>
       <c r="C58">
-        <v>0.62585493249236201</v>
-      </c>
-      <c r="D58" t="s">
-        <v>24</v>
+        <v>0.67727899871883401</v>
+      </c>
+      <c r="D58">
+        <v>0.84723333333333395</v>
       </c>
       <c r="E58">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I58" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>0.114122764587079</v>
       </c>
       <c r="J58">
-        <v>2.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K58">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="L58">
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="M58">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B59">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="C59">
-        <v>0.66420616931112697</v>
-      </c>
-      <c r="D59" t="s">
-        <v>24</v>
+        <v>0.67494333300483</v>
+      </c>
+      <c r="D59">
+        <v>0.84870000000000001</v>
       </c>
       <c r="E59">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I59" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>0.114122764587079</v>
       </c>
       <c r="J59">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="K59">
-        <v>2.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L59">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>590</v>
       </c>
       <c r="C60">
-        <v>0.61886271804474402</v>
-      </c>
-      <c r="D60" t="s">
-        <v>24</v>
+        <v>0.68345323741007202</v>
+      </c>
+      <c r="D60">
+        <v>0.85893333333333299</v>
       </c>
       <c r="E60">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I60" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0.114122764587079</v>
       </c>
       <c r="J60">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="K60">
-        <v>2.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L60">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>600</v>
       </c>
       <c r="C61">
-        <v>0.63968167931408704</v>
-      </c>
-      <c r="D61" t="s">
-        <v>24</v>
+        <v>0.67303636542820799</v>
+      </c>
+      <c r="D61">
+        <v>0.88096666666666701</v>
       </c>
       <c r="E61">
-        <v>4.9897470950102503E-2</v>
+        <v>0.95078605604921396</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>1.3698630136986301E-2</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>4.9897470950102503E-2</v>
-      </c>
-      <c r="I61" t="s">
-        <v>17</v>
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0.114122764587079</v>
       </c>
       <c r="J61">
-        <v>0.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K61">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="L61">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="M61">
         <v>1.9</v>
@@ -16364,7 +16371,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:N61">
-    <sortCondition descending="1" ref="J2"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18275,9 +18282,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20750,9 +20757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50:XFD50"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20855,7 +20862,7 @@
         <v>0.42615061646851099</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K34" si="0">(J3-J2)/J2*100</f>
+        <f>(J3-J2)/J2*100</f>
         <v>21.748094035446879</v>
       </c>
       <c r="L3"/>
@@ -20892,7 +20899,7 @@
         <v>0.45432357340091101</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f>(J4-J3)/J3*100</f>
         <v>6.6110327765961987</v>
       </c>
       <c r="L4"/>
@@ -20929,7 +20936,7 @@
         <v>0.46749477586781402</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f>(J5-J4)/J4*100</f>
         <v>2.8990796951846214</v>
       </c>
     </row>
@@ -20965,7 +20972,7 @@
         <v>0.46971147041300798</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f>(J6-J5)/J5*100</f>
         <v>0.47416455961012571</v>
       </c>
     </row>
@@ -21001,7 +21008,7 @@
         <v>0.461251782206899</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f>(J7-J6)/J6*100</f>
         <v>-1.8010393058254568</v>
       </c>
     </row>
@@ -21037,7 +21044,7 @@
         <v>0.477576123685233</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f>(J8-J7)/J7*100</f>
         <v>3.5391389492803218</v>
       </c>
       <c r="L8"/>
@@ -21074,7 +21081,7 @@
         <v>0.48299798023695101</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f>(J9-J8)/J8*100</f>
         <v>1.1352863518134158</v>
       </c>
     </row>
@@ -21110,7 +21117,7 @@
         <v>0.50085678893767105</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f>(J10-J9)/J9*100</f>
         <v>3.6974913832887659</v>
       </c>
     </row>
@@ -21146,7 +21153,7 @@
         <v>0.51140291248985004</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f>(J11-J10)/J10*100</f>
         <v>2.1056165724632705</v>
       </c>
     </row>
@@ -21182,7 +21189,7 @@
         <v>0.50164403032942195</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f>(J12-J11)/J11*100</f>
         <v>-1.9082570556580025</v>
       </c>
     </row>
@@ -21218,7 +21225,7 @@
         <v>0.49984503233694499</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f>(J13-J12)/J12*100</f>
         <v>-0.35862043275897931</v>
       </c>
     </row>
@@ -21254,7 +21261,7 @@
         <v>0.502105455404667</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f>(J14-J13)/J13*100</f>
         <v>0.45222477397719885</v>
       </c>
     </row>
@@ -21290,7 +21297,7 @@
         <v>0.50708176873587396</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
+        <f>(J15-J14)/J14*100</f>
         <v>0.99108927768895672</v>
       </c>
     </row>
@@ -21326,7 +21333,7 @@
         <v>0.51574137349162297</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
+        <f>(J16-J15)/J15*100</f>
         <v>1.7077334050752619</v>
       </c>
     </row>
@@ -21362,7 +21369,7 @@
         <v>0.51710006855415402</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
+        <f>(J17-J16)/J16*100</f>
         <v>0.26344503899940186</v>
       </c>
     </row>
@@ -21398,7 +21405,7 @@
         <v>0.51647290036053295</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
+        <f>(J18-J17)/J17*100</f>
         <v>-0.12128565277020338</v>
       </c>
     </row>
@@ -21434,7 +21441,7 @@
         <v>0.51814589677190703</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
+        <f>(J19-J18)/J18*100</f>
         <v>0.32392723997836465</v>
       </c>
     </row>
@@ -21470,7 +21477,7 @@
         <v>0.51127375098992001</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
+        <f>(J20-J19)/J19*100</f>
         <v>-1.3262955134453596</v>
       </c>
     </row>
@@ -21506,7 +21513,7 @@
         <v>0.52055708528787203</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
+        <f>(J21-J20)/J20*100</f>
         <v>1.8157267569433766</v>
       </c>
     </row>
@@ -21542,7 +21549,7 @@
         <v>0.52529719646678297</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
+        <f>(J22-J21)/J21*100</f>
         <v>0.91058431685539643</v>
       </c>
     </row>
@@ -21578,7 +21585,7 @@
         <v>0.523041522205134</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f>(J23-J22)/J22*100</f>
         <v>-0.42940915672516872</v>
       </c>
     </row>
@@ -21614,7 +21621,7 @@
         <v>0.53038435393681005</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f>(J24-J23)/J23*100</f>
         <v>1.4038716660044113</v>
       </c>
     </row>
@@ -21650,7 +21657,7 @@
         <v>0.53254746959972699</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f>(J25-J24)/J24*100</f>
         <v>0.40783926729004727</v>
       </c>
     </row>
@@ -21686,7 +21693,7 @@
         <v>0.53517212821862503</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
+        <f>(J26-J25)/J25*100</f>
         <v>0.49284970236940384</v>
       </c>
     </row>
@@ -21722,7 +21729,7 @@
         <v>0.53690584169646405</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
+        <f>(J27-J26)/J26*100</f>
         <v>0.3239543665343444</v>
       </c>
     </row>
@@ -21758,7 +21765,7 @@
         <v>0.53383316421897498</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
+        <f>(J28-J27)/J27*100</f>
         <v>-0.57229354550889555</v>
       </c>
     </row>
@@ -21794,7 +21801,7 @@
         <v>0.54892698595175404</v>
       </c>
       <c r="K29">
-        <f t="shared" si="0"/>
+        <f>(J29-J28)/J28*100</f>
         <v>2.827441744812182</v>
       </c>
     </row>
@@ -21830,7 +21837,7 @@
         <v>0.542684260281729</v>
       </c>
       <c r="K30">
-        <f t="shared" si="0"/>
+        <f>(J30-J29)/J29*100</f>
         <v>-1.1372597503475119</v>
       </c>
     </row>
@@ -21866,7 +21873,7 @@
         <v>0.54885164743541803</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f>(J31-J30)/J30*100</f>
         <v>1.1364595594659948</v>
       </c>
     </row>
@@ -21902,7 +21909,7 @@
         <v>0.552285671704143</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f>(J32-J31)/J31*100</f>
         <v>0.62567440305060562</v>
       </c>
     </row>
@@ -21938,7 +21945,7 @@
         <v>0.558179826681514</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f>(J33-J32)/J32*100</f>
         <v>1.0672293849637431</v>
       </c>
     </row>
@@ -21974,7 +21981,7 @@
         <v>0.55733252140829503</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f>(J34-J33)/J33*100</f>
         <v>-0.15179790324139086</v>
       </c>
     </row>
@@ -22010,7 +22017,7 @@
         <v>0.56768767993741198</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" ref="K35:K66" si="1">(J35-J34)/J34*100</f>
+        <f>(J35-J34)/J34*100</f>
         <v>1.8579856963937844</v>
       </c>
       <c r="L35" s="2" t="s">
@@ -22049,7 +22056,7 @@
         <v>0.56223443041649701</v>
       </c>
       <c r="K36">
-        <f t="shared" si="1"/>
+        <f>(J36-J35)/J35*100</f>
         <v>-0.96060733985211655</v>
       </c>
     </row>
@@ -22085,7 +22092,7 @@
         <v>0.56117508869345001</v>
       </c>
       <c r="K37">
-        <f t="shared" si="1"/>
+        <f>(J37-J36)/J36*100</f>
         <v>-0.18841637326662011</v>
       </c>
     </row>
@@ -22121,7 +22128,7 @@
         <v>0.56880730078017605</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="1"/>
+        <f>(J38-J37)/J37*100</f>
         <v>1.3600411423279068</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -22160,7 +22167,7 @@
         <v>0.55840481185241997</v>
       </c>
       <c r="K39">
-        <f t="shared" si="1"/>
+        <f>(J39-J38)/J38*100</f>
         <v>-1.828824790660744</v>
       </c>
     </row>
@@ -22196,7 +22203,7 @@
         <v>0.55717403309984004</v>
       </c>
       <c r="K40">
-        <f t="shared" si="1"/>
+        <f>(J40-J39)/J39*100</f>
         <v>-0.22040976840744195</v>
       </c>
     </row>
@@ -22232,7 +22239,7 @@
         <v>0.56023093863415996</v>
       </c>
       <c r="K41">
-        <f t="shared" si="1"/>
+        <f>(J41-J40)/J40*100</f>
         <v>0.54864465188961042</v>
       </c>
     </row>
@@ -22268,7 +22275,7 @@
         <v>0.55874777794244102</v>
       </c>
       <c r="K42">
-        <f t="shared" si="1"/>
+        <f>(J42-J41)/J41*100</f>
         <v>-0.26474094689145178</v>
       </c>
     </row>
@@ -22304,7 +22311,7 @@
         <v>0.55613478589982701</v>
       </c>
       <c r="K43">
-        <f t="shared" si="1"/>
+        <f>(J43-J42)/J42*100</f>
         <v>-0.46765144234420197</v>
       </c>
     </row>
@@ -22340,7 +22347,7 @@
         <v>0.56245413390657495</v>
       </c>
       <c r="K44">
-        <f t="shared" si="1"/>
+        <f>(J44-J43)/J43*100</f>
         <v>1.1362979203905079</v>
       </c>
     </row>
@@ -22376,7 +22383,7 @@
         <v>0.56227617148338205</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="1"/>
+        <f>(J45-J44)/J44*100</f>
         <v>-3.1640344068030471E-2</v>
       </c>
       <c r="L45" s="2" t="s">
@@ -22415,7 +22422,7 @@
         <v>0.56248223067188996</v>
       </c>
       <c r="K46">
-        <f t="shared" si="1"/>
+        <f>(J46-J45)/J45*100</f>
         <v>3.6647327231437231E-2</v>
       </c>
     </row>
@@ -22451,7 +22458,7 @@
         <v>0.55501141245545704</v>
       </c>
       <c r="K47">
-        <f t="shared" si="1"/>
+        <f>(J47-J46)/J46*100</f>
         <v>-1.3281874180290032</v>
       </c>
     </row>
@@ -22487,7 +22494,7 @@
         <v>0.55602580004595903</v>
       </c>
       <c r="K48">
-        <f t="shared" si="1"/>
+        <f>(J48-J47)/J47*100</f>
         <v>0.18276878055789469</v>
       </c>
     </row>
@@ -22523,7 +22530,7 @@
         <v>0.55641359761048903</v>
       </c>
       <c r="K49">
-        <f t="shared" si="1"/>
+        <f>(J49-J48)/J48*100</f>
         <v>6.9744527052152519E-2</v>
       </c>
     </row>
@@ -22559,7 +22566,7 @@
         <v>0.56095699457081105</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="1"/>
+        <f>(J50-J49)/J49*100</f>
         <v>0.8165503107461034</v>
       </c>
     </row>
@@ -22595,7 +22602,7 @@
         <v>0.55572571751051103</v>
       </c>
       <c r="K51">
-        <f t="shared" si="1"/>
+        <f>(J51-J50)/J50*100</f>
         <v>-0.93256294349310653</v>
       </c>
     </row>
@@ -22631,7 +22638,7 @@
         <v>0.55477953914507105</v>
       </c>
       <c r="K52">
-        <f t="shared" si="1"/>
+        <f>(J52-J51)/J51*100</f>
         <v>-0.17025995659847787</v>
       </c>
     </row>
@@ -22667,7 +22674,7 @@
         <v>0.55565789330228799</v>
       </c>
       <c r="K53">
-        <f t="shared" si="1"/>
+        <f>(J53-J52)/J52*100</f>
         <v>0.15832490119777978</v>
       </c>
     </row>
@@ -22703,7 +22710,7 @@
         <v>0.56589382818078804</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="1"/>
+        <f>(J54-J53)/J53*100</f>
         <v>1.8421289433445551</v>
       </c>
       <c r="L54" s="2" t="s">
@@ -22742,7 +22749,7 @@
         <v>0.56375146062653403</v>
       </c>
       <c r="K55">
-        <f t="shared" si="1"/>
+        <f>(J55-J54)/J54*100</f>
         <v>-0.3785811838841226</v>
       </c>
     </row>
@@ -22778,7 +22785,7 @@
         <v>0.56109546122235698</v>
       </c>
       <c r="K56">
-        <f t="shared" si="1"/>
+        <f>(J56-J55)/J55*100</f>
         <v>-0.47112949405492605</v>
       </c>
     </row>
@@ -22814,7 +22821,7 @@
         <v>0.55684897046723303</v>
       </c>
       <c r="K57">
-        <f t="shared" si="1"/>
+        <f>(J57-J56)/J56*100</f>
         <v>-0.75682144102055204</v>
       </c>
     </row>
@@ -22850,7 +22857,7 @@
         <v>0.55537935445221998</v>
       </c>
       <c r="K58">
-        <f t="shared" si="1"/>
+        <f>(J58-J57)/J57*100</f>
         <v>-0.2639164464612278</v>
       </c>
     </row>
@@ -22886,7 +22893,7 @@
         <v>0.55120812656479401</v>
       </c>
       <c r="K59">
-        <f t="shared" si="1"/>
+        <f>(J59-J58)/J58*100</f>
         <v>-0.75105922717277063</v>
       </c>
     </row>
@@ -22922,7 +22929,7 @@
         <v>0.553659120708758</v>
       </c>
       <c r="K60">
-        <f t="shared" si="1"/>
+        <f>(J60-J59)/J59*100</f>
         <v>0.44465856467663667</v>
       </c>
     </row>
@@ -22958,13 +22965,13 @@
         <v>0.55392348054826401</v>
       </c>
       <c r="K61">
-        <f t="shared" si="1"/>
+        <f>(J61-J60)/J60*100</f>
         <v>4.7747762046725782E-2</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:L61">
-    <sortCondition ref="B2"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22978,7 +22985,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q19" sqref="Q19"/>
+      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
